--- a/pkg/Data/genePhi.xlsx
+++ b/pkg/Data/genePhi.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10780" yWindow="660" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="genePhi.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="115">
   <si>
     <t>V2</t>
   </si>
@@ -343,13 +343,34 @@
   </si>
   <si>
     <t>YMR186W</t>
+  </si>
+  <si>
+    <t>Subunit of the RNA polymerase II mediator complex; associates with core polymerase subunits to form the RNA polymerase II holoenzyme; required for stable association of Srb10p-Srb11p kinase; essential for transcriptional regulation</t>
+  </si>
+  <si>
+    <t>Xylulokinase, converts D-xylulose and ATP to xylulose 5-phosphate and ADP; rate limiting step in fermentation of xylulose; required for xylose fermentation by recombinant S. cerevisiae strains</t>
+  </si>
+  <si>
+    <t>Mitochondrial aspartyl-tRNA synthetase, required for acylation of aspartyl-tRNA; yeast and bacterial aspartyl-, asparaginyl-, and lysyl-tRNA synthetases contain regions with high sequence similarity, suggesting a common ancestral gene</t>
+  </si>
+  <si>
+    <t>Hexokinase isoenzyme 2 that catalyzes phosphorylation of glucose in the cytosol; predominant hexokinase during growth on glucose; functions in the nucleus to repress expression of HXK1 and GLK1 and to induce expression of its own gene</t>
+  </si>
+  <si>
+    <t>ATPase that is a component of the heat shock protein Hsp90 chaperone complex; binds unfolded proteins; member of the heat shock protein 70 (HSP70) family; localized to the cytoplasm</t>
+  </si>
+  <si>
+    <t>Ribosome-associated chaperone, functions in ribosome biogenesis and, in partnership with Ssz1p and SSb1/2, as a chaperone for nascent polypeptide chains; contains a DnaJ domain and functions as a J-protein partner for Ssb1p and Ssb2p</t>
+  </si>
+  <si>
+    <t>Adenylosuccinate synthase, catalyzes the first step in synthesis of adenosine monophosphate from inosine 5'monophosphate during purine nucleotide biosynthesis; exhibits binding to single-stranded autonomously replicating (ARS) core sequence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -363,6 +384,28 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -382,14 +425,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="19">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -719,100 +799,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" ht="17">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B2">
-        <v>1494.8640195400001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>33.579687919999998</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B3">
-        <v>5865.7370839900004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>116.57979207</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="B4">
-        <v>566.10765203999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>163.06901094</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="B5">
-        <v>13928.7509064599</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>169.22716579999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="B6">
-        <v>26650.511260679999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>267.33106246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="B7">
-        <v>1700.0747194999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>284.422267779999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B8">
-        <v>1369.3242213999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>331.70833462000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="B9">
-        <v>3138.8681335199999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>332.15580029999899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B10">
-        <v>13743.038669559999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>339.47042757999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B11">
-        <v>48210.3779593</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>367.05811427999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -820,132 +909,132 @@
         <v>377.34468002</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B13">
-        <v>1030.3326359999901</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>390.84505268999902</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B14">
-        <v>10219.297774299999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>410.48310972000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B15">
-        <v>1660.9509276799999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>549.62414951999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="B16">
-        <v>5089.8747027599902</v>
+        <v>554.39632354000003</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>4025.9946330499902</v>
+        <v>566.10765203999995</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B18">
-        <v>1727.4828945199999</v>
+        <v>618.79854350000005</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="B19">
-        <v>116494.771585999</v>
+        <v>651.64664175999997</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B20">
-        <v>8887.0123679999997</v>
+        <v>680.66210304000003</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="B21">
-        <v>14963.98932868</v>
+        <v>698.96950614000002</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="B22">
-        <v>3221.58053965</v>
+        <v>747.96795009000004</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="B23">
-        <v>1242.5703912199999</v>
+        <v>811.70412399999998</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
+        <v>106</v>
+      </c>
+      <c r="B24">
+        <v>821.99952480000002</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="B25">
-        <v>2160.1915727599999</v>
+        <v>834.20874560000004</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B26">
-        <v>8243.2024980799997</v>
+        <v>849.94701284999996</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="B27">
-        <v>2570.8060378</v>
+        <v>876.79203954000002</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B28">
-        <v>13444.999344</v>
+        <v>1030.3326359999901</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -958,630 +1047,646 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B30">
-        <v>49058.205450239999</v>
+        <v>1242.5703912199999</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B31">
-        <v>33.579687919999998</v>
+        <v>1369.3242213999999</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B32">
-        <v>7356.8582655999999</v>
+        <v>1494.8640195400001</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B33">
-        <v>549.62414951999995</v>
+        <v>1629.5672084999901</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B34">
-        <v>7692.5065902799997</v>
+        <v>1660.9509276799999</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B35">
-        <v>18188.170537679998</v>
+        <v>1700.0747194999999</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B36">
-        <v>410.48310972000002</v>
+        <v>1727.4828945199999</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="B37">
-        <v>367.05811427999998</v>
+        <v>1738.8269929200001</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B38">
-        <v>13430.1696866</v>
+        <v>1866.58733261</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B39">
-        <v>19310.064639240001</v>
+        <v>1918.6062778399901</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B40">
-        <v>16301.939384110001</v>
+        <v>1973.57070888</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B41">
+        <v>2160.1915727599999</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>24</v>
+        <v>82</v>
+      </c>
+      <c r="B42">
+        <v>2400.6474315</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="B43">
-        <v>60638.588954239996</v>
+        <v>2493.99232476</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B44">
-        <v>551791.17561239901</v>
+        <v>2570.8060378</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="B45">
-        <v>5495.7230278199904</v>
+        <v>2626.35397728</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="B46">
-        <v>58124.278716449997</v>
+        <v>3022.6701157799998</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B47">
-        <v>116.57979207</v>
+        <v>3138.8681335199999</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B48">
-        <v>280683.33838993998</v>
+        <v>3221.58053965</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="B49">
-        <v>339.47042757999998</v>
+        <v>3569.1591199599902</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>146362.95157912999</v>
+        <v>3776.6011299000002</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B51">
-        <v>12991.232953799999</v>
+        <v>4025.9946330499902</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>6307.2289657000001</v>
+        <v>4313.7056625300002</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B53">
-        <v>3776.6011299000002</v>
+        <v>5089.8747027599902</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>24</v>
+        <v>45</v>
+      </c>
+      <c r="B54">
+        <v>5495.7230278199904</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B55">
-        <v>4313.7056625300002</v>
+        <v>5865.7370839900004</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="B56">
-        <v>8146.9319677599997</v>
+        <v>6062.3472680799996</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B57">
-        <v>331.70833462000002</v>
+        <v>6307.2289657000001</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B58">
-        <v>1629.5672084999901</v>
+        <v>7356.8582655999999</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>680.66210304000003</v>
+        <v>7440.22037688</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>849.94701284999996</v>
+        <v>7671.1383871300004</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B61">
-        <v>1866.58733261</v>
+        <v>7692.5065902799997</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>17457.981780429898</v>
+        <v>8141.1026888899996</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B63">
-        <v>7440.22037688</v>
+        <v>8146.9319677599997</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B64" t="s">
-        <v>24</v>
+      <c r="A64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64">
+        <v>8233.9493218400003</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B65">
-        <v>7671.1383871300004</v>
+        <v>8243.2024980799997</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B66">
-        <v>22000.230566599999</v>
+        <v>8887.0123679999997</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="B67">
-        <v>14530.1866687</v>
+        <v>9298.60969664</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="B68">
-        <v>618.79854350000005</v>
+        <v>10219.297774299999</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69">
-        <v>46916.194155659898</v>
+        <v>11207.898124359999</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="B70">
-        <v>11207.898124359999</v>
+        <v>12527.369973119899</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B71">
-        <v>1918.6062778399901</v>
+        <v>12991.232953799999</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="B72">
-        <v>8141.1026888899996</v>
+        <v>13430.1696866</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="B73">
-        <v>84708.837860159998</v>
+        <v>13444.999344</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="B74">
-        <v>1973.57070888</v>
+        <v>13743.038669559999</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="B75">
-        <v>834.20874560000004</v>
+        <v>13928.7509064599</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B76">
-        <v>3022.6701157799998</v>
+        <v>14530.1866687</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="B77">
-        <v>8233.9493218400003</v>
+        <v>14963.98932868</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B78">
-        <v>80472.169501349999</v>
+        <v>16301.939384110001</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>188243.31251250001</v>
+        <v>16675.164733500002</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B80">
-        <v>163.06901094</v>
+        <v>17457.981780429898</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="B81">
-        <v>367338.71732543001</v>
+        <v>18188.170537679998</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="B82">
-        <v>2626.35397728</v>
+        <v>19310.064639240001</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B83">
-        <v>2400.6474315</v>
+        <v>22000.230566599999</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B84">
-        <v>16675.164733500002</v>
+        <v>25161.737184959999</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B85">
-        <v>103798.54585112</v>
+        <v>26650.511260679999</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>390.84505268999902</v>
+        <v>27490.06709316</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B87">
-        <v>6062.3472680799996</v>
+        <v>46916.194155659898</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B88">
-        <v>2493.99232476</v>
+        <v>48210.3779593</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="B89">
-        <v>811.70412399999998</v>
+        <v>49058.205450239999</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="B90">
-        <v>876.79203954000002</v>
+        <v>58124.278716449997</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="B91">
-        <v>747.96795009000004</v>
+        <v>60638.588954239996</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>651.64664175999997</v>
+        <v>64446.050713199897</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B93">
-        <v>9298.60969664</v>
+        <v>80472.169501349999</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B94">
-        <v>27490.06709316</v>
+        <v>84708.837860159998</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B95">
-        <v>169.22716579999999</v>
+        <v>103798.54585112</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="B96">
-        <v>64446.050713199897</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>116494.771585999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="B97">
-        <v>25161.737184959999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>146362.95157912999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B98">
-        <v>284.422267779999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>188243.31251250001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="17">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>554.39632354000003</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>268527.01921891997</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="17">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="B100">
-        <v>267.33106246</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>280683.33838993998</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="17">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B101">
-        <v>12527.369973119899</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>367338.71732543001</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="17">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="B102">
-        <v>698.96950614000002</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>551791.17561239901</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103">
-        <v>332.15580029999899</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>23</v>
+      </c>
+      <c r="B103" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104">
-        <v>3569.1591199599902</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>41</v>
+      </c>
+      <c r="B104" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105">
-        <v>268527.01921891997</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>42</v>
+      </c>
+      <c r="B105" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106">
-        <v>1738.8269929200001</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107">
-        <v>821.99952480000002</v>
+        <v>54</v>
+      </c>
+      <c r="B106" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B107">
+    <sortCondition ref="B2:B107"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
